--- a/medicine/Mort/Cimetière_Holmens/Cimetière_Holmens.xlsx
+++ b/medicine/Mort/Cimetière_Holmens/Cimetière_Holmens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Holmens</t>
+          <t>Cimetière_Holmens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Holmens (en danois : Holmens Kirkegård) est le plus vieux cimetière de Copenhague en service. Il a été fondé en 1666 et été à l'origine situé près de l'église Holmens dans le centre-ville avant d'être déplacé à Dag Hammarskjölds Allé dans le district d'Østerbro en 1666. Le cimetière servait à l'origine un lieu de sépulture et de commémoration pour les marins danois en service royal et leurs familles, en complément du cimetière de Garnisons, inauguré en 1711 sur un site voisin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Holmens</t>
+          <t>Cimetière_Holmens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Holmens</t>
+          <t>Cimetière_Holmens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -545,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Holmens</t>
+          <t>Cimetière_Holmens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,7 +579,9 @@
           <t>Mémorial de la bataille de Copenhague</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dédié aux marins tombés lors de la bataille de Copenhague de 1801. Il se compose d'un tumulus surmonté d'un obélisque conçu par Johannes Wiedewelt.
 </t>
@@ -576,7 +594,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Holmens</t>
+          <t>Cimetière_Holmens</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -595,6 +613,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
